--- a/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/2022-05-16_2022-05-22_Top10_rank_change_df.xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-16_2022-05-22/2022-05-16_2022-05-22_Top10_rank_change_df.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
-  <si>
-    <t>현재순위평균</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
+  <si>
+    <t>이번주순위평균</t>
   </si>
   <si>
     <t>곡</t>
@@ -31,157 +31,109 @@
     <t>사이트</t>
   </si>
   <si>
-    <t>과거순위평균</t>
+    <t>전주순위평균</t>
+  </si>
+  <si>
+    <t>That That (prod. &amp; feat. SUGA of BTS)</t>
+  </si>
+  <si>
+    <t>LOVE DIVE</t>
+  </si>
+  <si>
+    <t>TOMBOY</t>
   </si>
   <si>
     <t>FEARLESS</t>
   </si>
   <si>
-    <t>Happy Song</t>
-  </si>
-  <si>
-    <t>LOVE DIVE</t>
-  </si>
-  <si>
-    <t>TOMBOY</t>
-  </si>
-  <si>
-    <t>That That (prod. &amp; feat. SUGA of BTS)</t>
-  </si>
-  <si>
-    <t>That's Hilarious</t>
-  </si>
-  <si>
-    <t>YOU AND I</t>
-  </si>
-  <si>
-    <t>감동이야 (feat. 성시경)</t>
-  </si>
-  <si>
-    <t>봄 to 러브</t>
-  </si>
-  <si>
     <t>봄여름가을겨울 (Still Life)</t>
   </si>
   <si>
     <t>사랑인가 봐</t>
   </si>
   <si>
-    <t>안녕이란 말</t>
-  </si>
-  <si>
-    <t>왜 이제와서야 (Why)</t>
-  </si>
-  <si>
-    <t>초록을거머쥔우리는</t>
+    <t>사랑은 늘 도망가</t>
+  </si>
+  <si>
+    <t>우리들의 블루스</t>
+  </si>
+  <si>
+    <t>다시 만날 수 있을까</t>
+  </si>
+  <si>
+    <t>정이라고 하자 (Feat. 10CM)</t>
+  </si>
+  <si>
+    <t>That That (Prod. &amp; Feat. SUGA of BTS)</t>
   </si>
   <si>
     <t>Feel My Rhythm</t>
   </si>
   <si>
-    <t>다시 만날 수 있을까</t>
-  </si>
-  <si>
-    <t>사랑은 늘 도망가</t>
-  </si>
-  <si>
-    <t>우리들의 블루스</t>
+    <t>나의 X에게</t>
+  </si>
+  <si>
+    <t>신호등</t>
   </si>
   <si>
     <t>GANADARA (Feat. 아이유)</t>
   </si>
   <si>
-    <t>LOVE me</t>
-  </si>
-  <si>
-    <t>That That (Prod. &amp; Feat. SUGA of BTS)</t>
-  </si>
-  <si>
-    <t>이제 나만 믿어요</t>
-  </si>
-  <si>
-    <t>정이라고 하자 (Feat. 10CM)</t>
+    <t>취중고백</t>
   </si>
   <si>
     <t>That That (prod. ＆ feat. SUGA of BTS)</t>
   </si>
   <si>
-    <t>신호등</t>
-  </si>
-  <si>
-    <t>취중고백</t>
+    <t>싸이 (PSY)</t>
+  </si>
+  <si>
+    <t>IVE (아이브)</t>
+  </si>
+  <si>
+    <t>(여자)아이들</t>
   </si>
   <si>
     <t>LE SSERAFIM (르세라핌)</t>
   </si>
   <si>
-    <t>멜로망스(MeloMance)</t>
-  </si>
-  <si>
-    <t>IVE (아이브)</t>
-  </si>
-  <si>
-    <t>(여자)아이들</t>
-  </si>
-  <si>
-    <t>싸이 (PSY)</t>
-  </si>
-  <si>
-    <t>Charlie Puth(찰리 푸스)</t>
-  </si>
-  <si>
-    <t>WSG워너비 조별경연 (대청봉)</t>
-  </si>
-  <si>
-    <t>10CM</t>
-  </si>
-  <si>
     <t>BIGBANG (빅뱅)</t>
   </si>
   <si>
-    <t>정승환</t>
-  </si>
-  <si>
-    <t>황치열</t>
-  </si>
-  <si>
-    <t>잔나비</t>
+    <t>멜로망스</t>
+  </si>
+  <si>
+    <t>임영웅</t>
+  </si>
+  <si>
+    <t>BIG Naughty (서동현)</t>
+  </si>
+  <si>
+    <t>싸이 (Psy)</t>
+  </si>
+  <si>
+    <t>멜로망스 (MeloMance)</t>
   </si>
   <si>
     <t>Red Velvet (레드벨벳)</t>
   </si>
   <si>
-    <t>임영웅</t>
-  </si>
-  <si>
-    <t>멜로망스</t>
+    <t>경서</t>
+  </si>
+  <si>
+    <t>IVE(아이브)</t>
+  </si>
+  <si>
+    <t>(여자) 아이들</t>
+  </si>
+  <si>
+    <t>멜로망스(Melomance)</t>
+  </si>
+  <si>
+    <t>이무진</t>
   </si>
   <si>
     <t>박재범</t>
-  </si>
-  <si>
-    <t>BE'O (비오)</t>
-  </si>
-  <si>
-    <t>싸이 (Psy)</t>
-  </si>
-  <si>
-    <t>멜로망스 (MeloMance)</t>
-  </si>
-  <si>
-    <t>BIG Naughty (서동현)</t>
-  </si>
-  <si>
-    <t>IVE(아이브)</t>
-  </si>
-  <si>
-    <t>(여자) 아이들</t>
-  </si>
-  <si>
-    <t>멜로망스(Melomance)</t>
-  </si>
-  <si>
-    <t>이무진</t>
   </si>
   <si>
     <t>김민석(멜로망스)</t>
@@ -557,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -585,1102 +537,842 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>7</v>
+        <v>4.4</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>0.7000000000000002</v>
+        <v>-2.7</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>6.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>4.4</v>
+        <v>-1</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>4.4</v>
+        <v>6.3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>3.4</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>5.5</v>
+        <v>8.9</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5">
-        <v>-1.2</v>
+        <v>-2.600000000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>4.4</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F6">
-        <v>1.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>-0.2999999999999998</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>6.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>8.5</v>
+        <v>6.1</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D10">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>2.4</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F11">
-        <v>7.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>-0.5</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F12">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>8.5</v>
+        <v>9.1</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>3.200000000000001</v>
+      </c>
+      <c r="E14" t="s">
         <v>42</v>
       </c>
-      <c r="D14">
-        <v>6.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>57</v>
-      </c>
       <c r="F14">
-        <v>2</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="D15">
-        <v>6.5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>57</v>
-      </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>9.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F16">
-        <v>8.199999999999999</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>-0.3999999999999999</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F18">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>8.6</v>
+        <v>5.6</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>-0.3000000000000007</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F20">
-        <v>8.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>4.3</v>
+        <v>9.4</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>0.3999999999999999</v>
+        <v>-2.100000000000001</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F21">
-        <v>3.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>-0.2000000000000002</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F22">
-        <v>4.9</v>
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>6.1</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F23">
-        <v>6.1</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>6.9</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
       <c r="D24">
-        <v>0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F24">
-        <v>6.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>8.699999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>-1.6</v>
+      </c>
+      <c r="E25" t="s">
         <v>44</v>
       </c>
-      <c r="D25">
-        <v>1.399999999999999</v>
-      </c>
-      <c r="E25" t="s">
-        <v>59</v>
-      </c>
       <c r="F25">
-        <v>7.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>10</v>
+        <v>2.3</v>
       </c>
       <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
       <c r="D26">
-        <v>0.8000000000000007</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F26">
-        <v>9.199999999999999</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>-0.1000000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F27">
-        <v>3.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>9.6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="D28">
-        <v>0.2999999999999989</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F28">
-        <v>9.300000000000001</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>-0.6000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F29">
-        <v>2.6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>1</v>
+        <v>7.1</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>4.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>0.7999999999999998</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F32">
-        <v>3.3</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>5.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>-0.4000000000000004</v>
+        <v>2.700000000000001</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>5.3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>0.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F34">
-        <v>5.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="E35" t="s">
         <v>45</v>
       </c>
-      <c r="D35">
-        <v>-0.7999999999999998</v>
-      </c>
-      <c r="E35" t="s">
-        <v>59</v>
-      </c>
       <c r="F35">
-        <v>7.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
         <v>27</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F37">
-        <v>7.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D38">
-        <v>-0.7000000000000002</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>3.1</v>
+        <v>7.4</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>-0.8999999999999999</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E39" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>-0.6999999999999993</v>
+      </c>
+      <c r="E41" t="s">
         <v>45</v>
       </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>60</v>
-      </c>
       <c r="F41">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>3.6</v>
+        <v>8.1</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>1.6</v>
+        <v>8.200000000000001</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="B43" t="s">
         <v>22</v>
       </c>
       <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="E43" t="s">
         <v>45</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>60</v>
-      </c>
       <c r="F43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>7.1</v>
-      </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45">
-        <v>-0.2000000000000002</v>
-      </c>
-      <c r="E45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46">
-        <v>-1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F46">
-        <v>9.699999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>8.1</v>
-      </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47">
-        <v>-1.9</v>
-      </c>
-      <c r="E47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="B49" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="E49" t="s">
-        <v>61</v>
-      </c>
-      <c r="F49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>61</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>2.6</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51">
-        <v>-0.3999999999999999</v>
-      </c>
-      <c r="E51" t="s">
-        <v>61</v>
-      </c>
-      <c r="F51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>2.4</v>
-      </c>
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D52">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="E52" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52">
         <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>4</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>6</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" t="s">
-        <v>54</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>61</v>
-      </c>
-      <c r="F54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>7.4</v>
-      </c>
-      <c r="B55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="E55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="B56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="E56" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
